--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_AREPD_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_AREPD_General.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.1587518555877086</v>
+        <v>-0.1679909953156797</v>
       </c>
       <c r="D2">
-        <v>0.8738707431395887</v>
+        <v>0.8675856690834247</v>
       </c>
       <c r="E2">
         <v>3.178236185509254</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.7625958702300162</v>
+        <v>-0.8927145915148792</v>
       </c>
       <c r="D3">
-        <v>0.4457401437877189</v>
+        <v>0.3782852011271101</v>
       </c>
       <c r="E3">
         <v>3.178236185509254</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-2.692066753399966</v>
+        <v>-2.233523161090723</v>
       </c>
       <c r="D4">
-        <v>0.007124544218585216</v>
+        <v>0.03220112947831488</v>
       </c>
       <c r="E4">
         <v>3.178236185509254</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-2.830893333016342</v>
+        <v>-2.964546938285084</v>
       </c>
       <c r="D5">
-        <v>0.004660209959138184</v>
+        <v>0.005506704071783775</v>
       </c>
       <c r="E5">
         <v>3.178236185509254</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.5893480743522176</v>
+        <v>-0.5813551461600223</v>
       </c>
       <c r="D6">
-        <v>0.5556542224722629</v>
+        <v>0.5648356671766237</v>
       </c>
       <c r="E6">
         <v>3.214508258462147</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-2.286096041804039</v>
+        <v>-2.150838376735805</v>
       </c>
       <c r="D7">
-        <v>0.02228995600956774</v>
+        <v>0.03868434121037923</v>
       </c>
       <c r="E7">
         <v>3.214508258462147</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-2.638177746410595</v>
+        <v>-2.650015155701639</v>
       </c>
       <c r="D8">
-        <v>0.00836091494069735</v>
+        <v>0.01212704975196344</v>
       </c>
       <c r="E8">
         <v>3.214508258462147</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-1.956315098574861</v>
+        <v>-2.023892997956647</v>
       </c>
       <c r="D9">
-        <v>0.05048320866987011</v>
+        <v>0.05089661164679593</v>
       </c>
       <c r="E9">
         <v>3.355105978455965</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-2.014103278158391</v>
+        <v>-2.40616272574227</v>
       </c>
       <c r="D10">
-        <v>0.04405173574708487</v>
+        <v>0.02170422856365617</v>
       </c>
       <c r="E10">
         <v>3.355105978455965</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.5705628735335846</v>
+        <v>-0.6458905805875922</v>
       </c>
       <c r="D11">
-        <v>0.568321431780163</v>
+        <v>0.5226859634931962</v>
       </c>
       <c r="E11">
         <v>3.959208480461435</v>
